--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-8592" yWindow="4812" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4680" yWindow="2655" windowWidth="28800" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -58,7 +58,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
     </dxf>
@@ -138,6 +141,23 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H61" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:H61"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Mes" dataDxfId="1"/>
+    <tableColumn id="2" name="BBDD"/>
+    <tableColumn id="3" name="Productos"/>
+    <tableColumn id="4" name="Sistemas"/>
+    <tableColumn id="5" name="Sap"/>
+    <tableColumn id="6" name="Cloud"/>
+    <tableColumn id="7" name="Sau Printer"/>
+    <tableColumn id="8" name="Sau Computer"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="J1:Q61" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="J1:Q61"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Mes" dataDxfId="0"/>
     <tableColumn id="2" name="BBDD"/>
@@ -453,15 +473,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H17"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="14.5546875" customWidth="1" min="8" max="8"/>
+    <col width="14.5703125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,6 +525,46 @@
           <t>Sau Computer</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>BBDD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Productos</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sistemas</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Sap</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Sau Printer</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Sau Computer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -531,13 +591,37 @@
       <c r="H2" t="n">
         <v>3426</v>
       </c>
+      <c r="J2" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>626</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1098</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1494</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3426</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="C3" t="n">
         <v>1107</v>
@@ -555,6 +639,30 @@
         <v>279</v>
       </c>
       <c r="H3" t="n">
+        <v>3451</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="K3" t="n">
+        <v>626</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1107</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1558</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3451</v>
       </c>
     </row>
@@ -583,6 +691,30 @@
       <c r="H4" t="n">
         <v>3437</v>
       </c>
+      <c r="J4" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="K4" t="n">
+        <v>626</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1110</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1576</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>31</v>
+      </c>
+      <c r="P4" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3437</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -609,6 +741,30 @@
       <c r="H5" t="n">
         <v>3454</v>
       </c>
+      <c r="J5" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="K5" t="n">
+        <v>626</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1110</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>42</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3454</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -635,6 +791,30 @@
       <c r="H6" t="n">
         <v>3481</v>
       </c>
+      <c r="J6" s="1" t="n">
+        <v>44317</v>
+      </c>
+      <c r="K6" t="n">
+        <v>633</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1117</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1575</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3481</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -661,6 +841,30 @@
       <c r="H7" t="n">
         <v>3484</v>
       </c>
+      <c r="J7" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="K7" t="n">
+        <v>638</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1791</v>
+      </c>
+      <c r="N7" t="n">
+        <v>42</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>283</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3484</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -687,6 +891,30 @@
       <c r="H8" t="n">
         <v>3498</v>
       </c>
+      <c r="J8" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="K8" t="n">
+        <v>640</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1591</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P8" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3498</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,6 +941,30 @@
       <c r="H9" t="n">
         <v>3502</v>
       </c>
+      <c r="J9" s="1" t="n">
+        <v>44409</v>
+      </c>
+      <c r="K9" t="n">
+        <v>640</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1132</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1591</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42</v>
+      </c>
+      <c r="O9" t="n">
+        <v>40</v>
+      </c>
+      <c r="P9" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3502</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -739,6 +991,30 @@
       <c r="H10" t="n">
         <v>3573</v>
       </c>
+      <c r="J10" s="1" t="n">
+        <v>44440</v>
+      </c>
+      <c r="K10" t="n">
+        <v>641</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1602</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P10" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3573</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -765,6 +1041,30 @@
       <c r="H11" t="n">
         <v>3573</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="K11" t="n">
+        <v>645</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1182</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1620</v>
+      </c>
+      <c r="N11" t="n">
+        <v>42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P11" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3573</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -791,6 +1091,30 @@
       <c r="H12" t="n">
         <v>3573</v>
       </c>
+      <c r="J12" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="K12" t="n">
+        <v>650</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1174</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1651</v>
+      </c>
+      <c r="N12" t="n">
+        <v>42</v>
+      </c>
+      <c r="O12" t="n">
+        <v>46</v>
+      </c>
+      <c r="P12" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3573</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -817,6 +1141,30 @@
       <c r="H13" t="n">
         <v>3573</v>
       </c>
+      <c r="J13" s="1" t="n">
+        <v>44531</v>
+      </c>
+      <c r="K13" t="n">
+        <v>650</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1697</v>
+      </c>
+      <c r="N13" t="n">
+        <v>42</v>
+      </c>
+      <c r="O13" t="n">
+        <v>46</v>
+      </c>
+      <c r="P13" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3573</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -843,6 +1191,30 @@
       <c r="H14" t="n">
         <v>3574</v>
       </c>
+      <c r="J14" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="K14" t="n">
+        <v>769</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1396</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1732</v>
+      </c>
+      <c r="N14" t="n">
+        <v>61</v>
+      </c>
+      <c r="O14" t="n">
+        <v>293</v>
+      </c>
+      <c r="P14" t="n">
+        <v>331</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3574</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -869,6 +1241,30 @@
       <c r="H15" t="n">
         <v>3574</v>
       </c>
+      <c r="J15" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="K15" t="n">
+        <v>769</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1396</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1732</v>
+      </c>
+      <c r="N15" t="n">
+        <v>61</v>
+      </c>
+      <c r="O15" t="n">
+        <v>293</v>
+      </c>
+      <c r="P15" t="n">
+        <v>331</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3574</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -895,6 +1291,30 @@
       <c r="H16" t="n">
         <v>3574</v>
       </c>
+      <c r="J16" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="K16" t="n">
+        <v>769</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1405</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N16" t="n">
+        <v>61</v>
+      </c>
+      <c r="O16" t="n">
+        <v>305</v>
+      </c>
+      <c r="P16" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3574</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -921,231 +1341,388 @@
       <c r="H17" t="n">
         <v>3574</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="K17" t="n">
+        <v>815</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1472</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1730</v>
+      </c>
+      <c r="N17" t="n">
+        <v>61</v>
+      </c>
+      <c r="O17" t="n">
+        <v>293</v>
+      </c>
+      <c r="P17" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3574</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>44682</v>
       </c>
+      <c r="J18" s="1" t="n">
+        <v>44682</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>44713</v>
       </c>
+      <c r="J19" s="1" t="n">
+        <v>44713</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>44743</v>
       </c>
+      <c r="J20" s="1" t="n">
+        <v>44743</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>44774</v>
       </c>
+      <c r="J21" s="1" t="n">
+        <v>44774</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>44805</v>
       </c>
+      <c r="J22" s="1" t="n">
+        <v>44805</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44835</v>
       </c>
+      <c r="J23" s="1" t="n">
+        <v>44835</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>44866</v>
       </c>
+      <c r="J24" s="1" t="n">
+        <v>44866</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>44896</v>
       </c>
+      <c r="J25" s="1" t="n">
+        <v>44896</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>44927</v>
       </c>
+      <c r="J26" s="1" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>44958</v>
       </c>
+      <c r="J27" s="1" t="n">
+        <v>44958</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>44986</v>
       </c>
+      <c r="J28" s="1" t="n">
+        <v>44986</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45017</v>
       </c>
+      <c r="J29" s="1" t="n">
+        <v>45017</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45047</v>
       </c>
+      <c r="J30" s="1" t="n">
+        <v>45047</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45078</v>
       </c>
+      <c r="J31" s="1" t="n">
+        <v>45078</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45108</v>
       </c>
+      <c r="J32" s="1" t="n">
+        <v>45108</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45139</v>
       </c>
+      <c r="J33" s="1" t="n">
+        <v>45139</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45170</v>
       </c>
+      <c r="J34" s="1" t="n">
+        <v>45170</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45200</v>
       </c>
+      <c r="J35" s="1" t="n">
+        <v>45200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45231</v>
       </c>
+      <c r="J36" s="1" t="n">
+        <v>45231</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45261</v>
       </c>
+      <c r="J37" s="1" t="n">
+        <v>45261</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45292</v>
       </c>
+      <c r="J38" s="1" t="n">
+        <v>45292</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45323</v>
       </c>
+      <c r="J39" s="1" t="n">
+        <v>45323</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45352</v>
       </c>
+      <c r="J40" s="1" t="n">
+        <v>45352</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45383</v>
       </c>
+      <c r="J41" s="1" t="n">
+        <v>45383</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45413</v>
       </c>
+      <c r="J42" s="1" t="n">
+        <v>45413</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45444</v>
       </c>
+      <c r="J43" s="1" t="n">
+        <v>45444</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45474</v>
       </c>
+      <c r="J44" s="1" t="n">
+        <v>45474</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>45505</v>
       </c>
+      <c r="J45" s="1" t="n">
+        <v>45505</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>45536</v>
       </c>
+      <c r="J46" s="1" t="n">
+        <v>45536</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45566</v>
       </c>
+      <c r="J47" s="1" t="n">
+        <v>45566</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>45597</v>
       </c>
+      <c r="J48" s="1" t="n">
+        <v>45597</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>45627</v>
       </c>
+      <c r="J49" s="1" t="n">
+        <v>45627</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>45658</v>
       </c>
+      <c r="J50" s="1" t="n">
+        <v>45658</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>45689</v>
       </c>
+      <c r="J51" s="1" t="n">
+        <v>45689</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>45717</v>
       </c>
+      <c r="J52" s="1" t="n">
+        <v>45717</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>45748</v>
       </c>
+      <c r="J53" s="1" t="n">
+        <v>45748</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>45778</v>
       </c>
+      <c r="J54" s="1" t="n">
+        <v>45778</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>45809</v>
       </c>
+      <c r="J55" s="1" t="n">
+        <v>45809</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>45839</v>
       </c>
+      <c r="J56" s="1" t="n">
+        <v>45839</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>45870</v>
       </c>
+      <c r="J57" s="1" t="n">
+        <v>45870</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>45901</v>
       </c>
+      <c r="J58" s="1" t="n">
+        <v>45901</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>45931</v>
       </c>
+      <c r="J59" s="1" t="n">
+        <v>45931</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>45962</v>
       </c>
+      <c r="J60" s="1" t="n">
+        <v>45962</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>45992</v>
       </c>
+      <c r="J61" s="1" t="n">
+        <v>45992</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8130" yWindow="1050" windowWidth="28800" windowHeight="12795" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,7 +59,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -146,47 +179,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H61" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:H61"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Mes" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:N61" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:N61"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Mes" dataDxfId="14"/>
     <tableColumn id="2" name="BBDD"/>
     <tableColumn id="3" name="Productos"/>
     <tableColumn id="4" name="Sistemas"/>
     <tableColumn id="5" name="Sap"/>
     <tableColumn id="6" name="Cloud"/>
     <tableColumn id="7" name="Sau Printer"/>
+    <tableColumn id="13" name="Sau Tablets"/>
     <tableColumn id="8" name="Sau Computer"/>
+    <tableColumn id="9" name="Usuarios REE"/>
+    <tableColumn id="10" name="Sau smartphones"/>
+    <tableColumn id="11" name="Sau lineas moviles"/>
+    <tableColumn id="12" name="Sau Telefonia fija"/>
+    <tableColumn id="14" name="Listado de aplicaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla134" displayName="Tabla134" ref="A1:H61" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:H61"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Mes" dataDxfId="2"/>
-    <tableColumn id="2" name="BBDD" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:N61" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:N61"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Mes" dataDxfId="13"/>
+    <tableColumn id="2" name="BBDD" dataDxfId="12">
       <calculatedColumnFormula>(Tabla1[[#This Row],[BBDD]]-Hoja1!B1)/Hoja1!B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Productos" dataDxfId="0">
+    <tableColumn id="3" name="Productos" dataDxfId="10">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Productos]]-Hoja1!C1)/Hoja1!C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Sistemas">
+    <tableColumn id="4" name="Sistemas" dataDxfId="11">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Sistemas]]-Hoja1!D1)/Hoja1!D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Sap">
+    <tableColumn id="5" name="Sap" dataDxfId="8">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Sap]]-Hoja1!E1)/Hoja1!E1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Cloud">
+    <tableColumn id="6" name="Cloud" dataDxfId="7">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Cloud]]-Hoja1!F1)/Hoja1!F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Sau Printer">
+    <tableColumn id="7" name="Sau Printer" dataDxfId="6">
       <calculatedColumnFormula>(Tabla1[[#This Row],[Sau Printer]]-Hoja1!G1)/Hoja1!G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sau Computer">
-      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H1)/Hoja1!H1</calculatedColumnFormula>
+    <tableColumn id="13" name="Sau Tablets" dataDxfId="5">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H1)/Hoja1!H1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Sau Computer" dataDxfId="4">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I1)/Hoja1!I1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Usuarios REE" dataDxfId="3">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J1)/Hoja1!J1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Sau smartphones" dataDxfId="2">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K1)/Hoja1!K1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Sau lineas moviles" dataDxfId="1">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L1)/Hoja1!L1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Sau Telefonia fija" dataDxfId="0">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M1)/Hoja1!M1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Listado de aplicaciones" dataDxfId="9">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N1)/Hoja1!N1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -494,15 +551,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col width="14.5703125" customWidth="1" min="8" max="8"/>
+    <col width="11.5703125" customWidth="1" min="8" max="8"/>
+    <col width="14.5703125" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,7 +601,37 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sau Tablets</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sau Computer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Usuarios REE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sau smartphones</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sau lineas moviles</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sau Telefonia fija</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Listado de aplicaciones</t>
         </is>
       </c>
     </row>
@@ -570,9 +658,23 @@
         <v>279</v>
       </c>
       <c r="H2" t="n">
-        <v>3426</v>
-      </c>
-      <c r="J2" s="1" t="n"/>
+        <v>638</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2788</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3018</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1775</v>
+      </c>
+      <c r="L2" t="n">
+        <v>169</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1303</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -597,9 +699,23 @@
         <v>279</v>
       </c>
       <c r="H3" t="n">
-        <v>3451</v>
-      </c>
-      <c r="J3" s="1" t="n"/>
+        <v>637</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2814</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3040</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1773</v>
+      </c>
+      <c r="L3" t="n">
+        <v>166</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1302</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -624,9 +740,23 @@
         <v>279</v>
       </c>
       <c r="H4" t="n">
-        <v>3437</v>
-      </c>
-      <c r="J4" s="1" t="n"/>
+        <v>634</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2803</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3081</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1785</v>
+      </c>
+      <c r="L4" t="n">
+        <v>166</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -651,9 +781,23 @@
         <v>283</v>
       </c>
       <c r="H5" t="n">
-        <v>3454</v>
-      </c>
-      <c r="J5" s="1" t="n"/>
+        <v>632</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2822</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1780</v>
+      </c>
+      <c r="L5" t="n">
+        <v>166</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1309</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -678,9 +822,23 @@
         <v>283</v>
       </c>
       <c r="H6" t="n">
-        <v>3481</v>
-      </c>
-      <c r="J6" s="1" t="n"/>
+        <v>630</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2851</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3172</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1777</v>
+      </c>
+      <c r="L6" t="n">
+        <v>166</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1303</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -705,9 +863,23 @@
         <v>283</v>
       </c>
       <c r="H7" t="n">
-        <v>3484</v>
-      </c>
-      <c r="J7" s="1" t="n"/>
+        <v>632</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2852</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3203</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1783</v>
+      </c>
+      <c r="L7" t="n">
+        <v>166</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1301</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -732,9 +904,23 @@
         <v>290</v>
       </c>
       <c r="H8" t="n">
-        <v>3498</v>
-      </c>
-      <c r="J8" s="1" t="n"/>
+        <v>623</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3231</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L8" t="n">
+        <v>166</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1299</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -759,9 +945,23 @@
         <v>290</v>
       </c>
       <c r="H9" t="n">
-        <v>3502</v>
-      </c>
-      <c r="J9" s="1" t="n"/>
+        <v>622</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3074</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1775</v>
+      </c>
+      <c r="L9" t="n">
+        <v>166</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1293</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,9 +986,23 @@
         <v>330</v>
       </c>
       <c r="H10" t="n">
-        <v>3573</v>
-      </c>
-      <c r="J10" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2766</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3091</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L10" t="n">
+        <v>236</v>
+      </c>
+      <c r="M10" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -813,9 +1027,23 @@
         <v>330</v>
       </c>
       <c r="H11" t="n">
-        <v>3573</v>
-      </c>
-      <c r="J11" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2795</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3144</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1861</v>
+      </c>
+      <c r="L11" t="n">
+        <v>236</v>
+      </c>
+      <c r="M11" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,9 +1068,23 @@
         <v>330</v>
       </c>
       <c r="H12" t="n">
-        <v>3573</v>
-      </c>
-      <c r="J12" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2802</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3197</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1861</v>
+      </c>
+      <c r="L12" t="n">
+        <v>236</v>
+      </c>
+      <c r="M12" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -867,9 +1109,23 @@
         <v>330</v>
       </c>
       <c r="H13" t="n">
-        <v>3573</v>
-      </c>
-      <c r="J13" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3251</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1863</v>
+      </c>
+      <c r="L13" t="n">
+        <v>236</v>
+      </c>
+      <c r="M13" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,9 +1150,23 @@
         <v>331</v>
       </c>
       <c r="H14" t="n">
-        <v>3574</v>
-      </c>
-      <c r="J14" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3310</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1863</v>
+      </c>
+      <c r="L14" t="n">
+        <v>236</v>
+      </c>
+      <c r="M14" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -921,333 +1191,259 @@
         <v>331</v>
       </c>
       <c r="H15" t="n">
-        <v>3574</v>
-      </c>
-      <c r="J15" s="1" t="n"/>
+        <v>633</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2831</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3356</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1864</v>
+      </c>
+      <c r="L15" t="n">
+        <v>236</v>
+      </c>
+      <c r="M15" t="n">
+        <v>823</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>769</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1405</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1715</v>
+        <v>1538</v>
       </c>
       <c r="E16" t="n">
         <v>61</v>
       </c>
-      <c r="F16" t="n">
-        <v>305</v>
-      </c>
-      <c r="G16" t="n">
-        <v>340</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3574</v>
-      </c>
-      <c r="J16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44652</v>
       </c>
-      <c r="B17" t="n">
-        <v>815</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1472</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1730</v>
-      </c>
-      <c r="E17" t="n">
-        <v>61</v>
-      </c>
-      <c r="F17" t="n">
-        <v>293</v>
-      </c>
-      <c r="G17" t="n">
-        <v>340</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3574</v>
-      </c>
-      <c r="J17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>44682</v>
       </c>
-      <c r="B18" t="n">
-        <v>769</v>
-      </c>
-      <c r="E18" t="n">
-        <v>61</v>
-      </c>
-      <c r="J18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>44713</v>
       </c>
-      <c r="J19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>44743</v>
       </c>
-      <c r="J20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>44774</v>
       </c>
-      <c r="J21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>44805</v>
       </c>
-      <c r="J22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="J23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="J24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="J25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>44927</v>
       </c>
-      <c r="J26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>44958</v>
       </c>
-      <c r="J27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>44986</v>
       </c>
-      <c r="J28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="J29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="J30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45078</v>
       </c>
-      <c r="J31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45108</v>
       </c>
-      <c r="J32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45139</v>
       </c>
-      <c r="J33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="J34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45200</v>
       </c>
-      <c r="J35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="J36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="J37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="J38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="J39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45352</v>
       </c>
-      <c r="J40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="J41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="J42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="J43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="J44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="J45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="J46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="J47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="J48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="J49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="J50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>45689</v>
       </c>
-      <c r="J51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="J52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>45748</v>
       </c>
-      <c r="J53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="J54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="J55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>45839</v>
       </c>
-      <c r="J56" s="1" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>45870</v>
       </c>
-      <c r="J57" s="1" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>45901</v>
       </c>
-      <c r="J58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>45931</v>
       </c>
-      <c r="J59" s="1" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>45962</v>
       </c>
-      <c r="J60" s="1" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>45992</v>
       </c>
-      <c r="J61" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1263,10 +1459,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1309,7 +1505,37 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sau Tablets</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sau Computer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Usuarios REE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sau smartphones</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sau lineas moviles</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sau Telefonia fija</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Listado de aplicaciones</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1568,31 @@
         <v/>
       </c>
       <c r="H2">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H1)/Hoja1!H1</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H1)/Hoja1!H1</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I1)/Hoja1!I1</f>
+        <v/>
+      </c>
+      <c r="J2">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J1)/Hoja1!J1</f>
+        <v/>
+      </c>
+      <c r="K2">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K1)/Hoja1!K1</f>
+        <v/>
+      </c>
+      <c r="L2">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L1)/Hoja1!L1</f>
+        <v/>
+      </c>
+      <c r="M2">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M1)/Hoja1!M1</f>
+        <v/>
+      </c>
+      <c r="N2">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N1)/Hoja1!N1</f>
         <v/>
       </c>
     </row>
@@ -1375,7 +1625,31 @@
         <v/>
       </c>
       <c r="H3">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H2)/Hoja1!H2</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H2)/Hoja1!H2</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I2)/Hoja1!I2</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J2)/Hoja1!J2</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K2)/Hoja1!K2</f>
+        <v/>
+      </c>
+      <c r="L3">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L2)/Hoja1!L2</f>
+        <v/>
+      </c>
+      <c r="M3">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M2)/Hoja1!M2</f>
+        <v/>
+      </c>
+      <c r="N3">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N2)/Hoja1!N2</f>
         <v/>
       </c>
     </row>
@@ -1408,7 +1682,31 @@
         <v/>
       </c>
       <c r="H4">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H3)/Hoja1!H3</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H3)/Hoja1!H3</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I3)/Hoja1!I3</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J3)/Hoja1!J3</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K3)/Hoja1!K3</f>
+        <v/>
+      </c>
+      <c r="L4">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L3)/Hoja1!L3</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M3)/Hoja1!M3</f>
+        <v/>
+      </c>
+      <c r="N4">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N3)/Hoja1!N3</f>
         <v/>
       </c>
     </row>
@@ -1441,7 +1739,31 @@
         <v/>
       </c>
       <c r="H5">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H4)/Hoja1!H4</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H4)/Hoja1!H4</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I4)/Hoja1!I4</f>
+        <v/>
+      </c>
+      <c r="J5">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J4)/Hoja1!J4</f>
+        <v/>
+      </c>
+      <c r="K5">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K4)/Hoja1!K4</f>
+        <v/>
+      </c>
+      <c r="L5">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L4)/Hoja1!L4</f>
+        <v/>
+      </c>
+      <c r="M5">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M4)/Hoja1!M4</f>
+        <v/>
+      </c>
+      <c r="N5">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N4)/Hoja1!N4</f>
         <v/>
       </c>
     </row>
@@ -1474,7 +1796,31 @@
         <v/>
       </c>
       <c r="H6">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H5)/Hoja1!H5</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H5)/Hoja1!H5</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I5)/Hoja1!I5</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J5)/Hoja1!J5</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K5)/Hoja1!K5</f>
+        <v/>
+      </c>
+      <c r="L6">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L5)/Hoja1!L5</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M5)/Hoja1!M5</f>
+        <v/>
+      </c>
+      <c r="N6">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N5)/Hoja1!N5</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1853,31 @@
         <v/>
       </c>
       <c r="H7">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H6)/Hoja1!H6</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H6)/Hoja1!H6</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I6)/Hoja1!I6</f>
+        <v/>
+      </c>
+      <c r="J7">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J6)/Hoja1!J6</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K6)/Hoja1!K6</f>
+        <v/>
+      </c>
+      <c r="L7">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L6)/Hoja1!L6</f>
+        <v/>
+      </c>
+      <c r="M7">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M6)/Hoja1!M6</f>
+        <v/>
+      </c>
+      <c r="N7">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N6)/Hoja1!N6</f>
         <v/>
       </c>
     </row>
@@ -1540,7 +1910,31 @@
         <v/>
       </c>
       <c r="H8">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H7)/Hoja1!H7</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H7)/Hoja1!H7</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I7)/Hoja1!I7</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J7)/Hoja1!J7</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K7)/Hoja1!K7</f>
+        <v/>
+      </c>
+      <c r="L8">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L7)/Hoja1!L7</f>
+        <v/>
+      </c>
+      <c r="M8">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M7)/Hoja1!M7</f>
+        <v/>
+      </c>
+      <c r="N8">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N7)/Hoja1!N7</f>
         <v/>
       </c>
     </row>
@@ -1573,7 +1967,31 @@
         <v/>
       </c>
       <c r="H9">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H8)/Hoja1!H8</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H8)/Hoja1!H8</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I8)/Hoja1!I8</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J8)/Hoja1!J8</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K8)/Hoja1!K8</f>
+        <v/>
+      </c>
+      <c r="L9">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L8)/Hoja1!L8</f>
+        <v/>
+      </c>
+      <c r="M9">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M8)/Hoja1!M8</f>
+        <v/>
+      </c>
+      <c r="N9">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N8)/Hoja1!N8</f>
         <v/>
       </c>
     </row>
@@ -1606,7 +2024,31 @@
         <v/>
       </c>
       <c r="H10">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H9)/Hoja1!H9</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H9)/Hoja1!H9</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I9)/Hoja1!I9</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J9)/Hoja1!J9</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K9)/Hoja1!K9</f>
+        <v/>
+      </c>
+      <c r="L10">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L9)/Hoja1!L9</f>
+        <v/>
+      </c>
+      <c r="M10">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M9)/Hoja1!M9</f>
+        <v/>
+      </c>
+      <c r="N10">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N9)/Hoja1!N9</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +2081,31 @@
         <v/>
       </c>
       <c r="H11">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H10)/Hoja1!H10</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H10)/Hoja1!H10</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I10)/Hoja1!I10</f>
+        <v/>
+      </c>
+      <c r="J11">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J10)/Hoja1!J10</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K10)/Hoja1!K10</f>
+        <v/>
+      </c>
+      <c r="L11">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L10)/Hoja1!L10</f>
+        <v/>
+      </c>
+      <c r="M11">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M10)/Hoja1!M10</f>
+        <v/>
+      </c>
+      <c r="N11">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N10)/Hoja1!N10</f>
         <v/>
       </c>
     </row>
@@ -1672,7 +2138,31 @@
         <v/>
       </c>
       <c r="H12">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H11)/Hoja1!H11</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H11)/Hoja1!H11</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I11)/Hoja1!I11</f>
+        <v/>
+      </c>
+      <c r="J12">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J11)/Hoja1!J11</f>
+        <v/>
+      </c>
+      <c r="K12">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K11)/Hoja1!K11</f>
+        <v/>
+      </c>
+      <c r="L12">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L11)/Hoja1!L11</f>
+        <v/>
+      </c>
+      <c r="M12">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M11)/Hoja1!M11</f>
+        <v/>
+      </c>
+      <c r="N12">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N11)/Hoja1!N11</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +2195,31 @@
         <v/>
       </c>
       <c r="H13">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H12)/Hoja1!H12</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H12)/Hoja1!H12</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I12)/Hoja1!I12</f>
+        <v/>
+      </c>
+      <c r="J13">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J12)/Hoja1!J12</f>
+        <v/>
+      </c>
+      <c r="K13">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K12)/Hoja1!K12</f>
+        <v/>
+      </c>
+      <c r="L13">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L12)/Hoja1!L12</f>
+        <v/>
+      </c>
+      <c r="M13">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M12)/Hoja1!M12</f>
+        <v/>
+      </c>
+      <c r="N13">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N12)/Hoja1!N12</f>
         <v/>
       </c>
     </row>
@@ -1738,7 +2252,31 @@
         <v/>
       </c>
       <c r="H14">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H13)/Hoja1!H13</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H13)/Hoja1!H13</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I13)/Hoja1!I13</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J13)/Hoja1!J13</f>
+        <v/>
+      </c>
+      <c r="K14">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K13)/Hoja1!K13</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L13)/Hoja1!L13</f>
+        <v/>
+      </c>
+      <c r="M14">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M13)/Hoja1!M13</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N13)/Hoja1!N13</f>
         <v/>
       </c>
     </row>
@@ -1771,7 +2309,31 @@
         <v/>
       </c>
       <c r="H15">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H14)/Hoja1!H14</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H14)/Hoja1!H14</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I14)/Hoja1!I14</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J14)/Hoja1!J14</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K14)/Hoja1!K14</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L14)/Hoja1!L14</f>
+        <v/>
+      </c>
+      <c r="M15">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M14)/Hoja1!M14</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N14)/Hoja1!N14</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +2366,31 @@
         <v/>
       </c>
       <c r="H16">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H15)/Hoja1!H15</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H15)/Hoja1!H15</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I15)/Hoja1!I15</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J15)/Hoja1!J15</f>
+        <v/>
+      </c>
+      <c r="K16">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K15)/Hoja1!K15</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L15)/Hoja1!L15</f>
+        <v/>
+      </c>
+      <c r="M16">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M15)/Hoja1!M15</f>
+        <v/>
+      </c>
+      <c r="N16">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N15)/Hoja1!N15</f>
         <v/>
       </c>
     </row>
@@ -1837,7 +2423,31 @@
         <v/>
       </c>
       <c r="H17">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H16)/Hoja1!H16</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H16)/Hoja1!H16</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I16)/Hoja1!I16</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J16)/Hoja1!J16</f>
+        <v/>
+      </c>
+      <c r="K17">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K16)/Hoja1!K16</f>
+        <v/>
+      </c>
+      <c r="L17">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L16)/Hoja1!L16</f>
+        <v/>
+      </c>
+      <c r="M17">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M16)/Hoja1!M16</f>
+        <v/>
+      </c>
+      <c r="N17">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N16)/Hoja1!N16</f>
         <v/>
       </c>
     </row>
@@ -1870,7 +2480,31 @@
         <v/>
       </c>
       <c r="H18">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H17)/Hoja1!H17</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H17)/Hoja1!H17</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I17)/Hoja1!I17</f>
+        <v/>
+      </c>
+      <c r="J18">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J17)/Hoja1!J17</f>
+        <v/>
+      </c>
+      <c r="K18">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K17)/Hoja1!K17</f>
+        <v/>
+      </c>
+      <c r="L18">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L17)/Hoja1!L17</f>
+        <v/>
+      </c>
+      <c r="M18">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M17)/Hoja1!M17</f>
+        <v/>
+      </c>
+      <c r="N18">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N17)/Hoja1!N17</f>
         <v/>
       </c>
     </row>
@@ -1903,7 +2537,31 @@
         <v/>
       </c>
       <c r="H19">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H18)/Hoja1!H18</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H18)/Hoja1!H18</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I18)/Hoja1!I18</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J18)/Hoja1!J18</f>
+        <v/>
+      </c>
+      <c r="K19">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K18)/Hoja1!K18</f>
+        <v/>
+      </c>
+      <c r="L19">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L18)/Hoja1!L18</f>
+        <v/>
+      </c>
+      <c r="M19">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M18)/Hoja1!M18</f>
+        <v/>
+      </c>
+      <c r="N19">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N18)/Hoja1!N18</f>
         <v/>
       </c>
     </row>
@@ -1936,7 +2594,31 @@
         <v/>
       </c>
       <c r="H20">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H19)/Hoja1!H19</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H19)/Hoja1!H19</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I19)/Hoja1!I19</f>
+        <v/>
+      </c>
+      <c r="J20">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J19)/Hoja1!J19</f>
+        <v/>
+      </c>
+      <c r="K20">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K19)/Hoja1!K19</f>
+        <v/>
+      </c>
+      <c r="L20">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L19)/Hoja1!L19</f>
+        <v/>
+      </c>
+      <c r="M20">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M19)/Hoja1!M19</f>
+        <v/>
+      </c>
+      <c r="N20">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N19)/Hoja1!N19</f>
         <v/>
       </c>
     </row>
@@ -1969,7 +2651,31 @@
         <v/>
       </c>
       <c r="H21">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H20)/Hoja1!H20</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H20)/Hoja1!H20</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I20)/Hoja1!I20</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J20)/Hoja1!J20</f>
+        <v/>
+      </c>
+      <c r="K21">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K20)/Hoja1!K20</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L20)/Hoja1!L20</f>
+        <v/>
+      </c>
+      <c r="M21">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M20)/Hoja1!M20</f>
+        <v/>
+      </c>
+      <c r="N21">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N20)/Hoja1!N20</f>
         <v/>
       </c>
     </row>
@@ -2002,7 +2708,31 @@
         <v/>
       </c>
       <c r="H22">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H21)/Hoja1!H21</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H21)/Hoja1!H21</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I21)/Hoja1!I21</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J21)/Hoja1!J21</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K21)/Hoja1!K21</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L21)/Hoja1!L21</f>
+        <v/>
+      </c>
+      <c r="M22">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M21)/Hoja1!M21</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N21)/Hoja1!N21</f>
         <v/>
       </c>
     </row>
@@ -2035,7 +2765,31 @@
         <v/>
       </c>
       <c r="H23">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H22)/Hoja1!H22</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H22)/Hoja1!H22</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I22)/Hoja1!I22</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J22)/Hoja1!J22</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K22)/Hoja1!K22</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L22)/Hoja1!L22</f>
+        <v/>
+      </c>
+      <c r="M23">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M22)/Hoja1!M22</f>
+        <v/>
+      </c>
+      <c r="N23">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N22)/Hoja1!N22</f>
         <v/>
       </c>
     </row>
@@ -2068,7 +2822,31 @@
         <v/>
       </c>
       <c r="H24">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H23)/Hoja1!H23</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H23)/Hoja1!H23</f>
+        <v/>
+      </c>
+      <c r="I24">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I23)/Hoja1!I23</f>
+        <v/>
+      </c>
+      <c r="J24">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J23)/Hoja1!J23</f>
+        <v/>
+      </c>
+      <c r="K24">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K23)/Hoja1!K23</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L23)/Hoja1!L23</f>
+        <v/>
+      </c>
+      <c r="M24">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M23)/Hoja1!M23</f>
+        <v/>
+      </c>
+      <c r="N24">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N23)/Hoja1!N23</f>
         <v/>
       </c>
     </row>
@@ -2101,7 +2879,31 @@
         <v/>
       </c>
       <c r="H25">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H24)/Hoja1!H24</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H24)/Hoja1!H24</f>
+        <v/>
+      </c>
+      <c r="I25">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I24)/Hoja1!I24</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J24)/Hoja1!J24</f>
+        <v/>
+      </c>
+      <c r="K25">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K24)/Hoja1!K24</f>
+        <v/>
+      </c>
+      <c r="L25">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L24)/Hoja1!L24</f>
+        <v/>
+      </c>
+      <c r="M25">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M24)/Hoja1!M24</f>
+        <v/>
+      </c>
+      <c r="N25">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N24)/Hoja1!N24</f>
         <v/>
       </c>
     </row>
@@ -2134,7 +2936,31 @@
         <v/>
       </c>
       <c r="H26">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H25)/Hoja1!H25</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H25)/Hoja1!H25</f>
+        <v/>
+      </c>
+      <c r="I26">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I25)/Hoja1!I25</f>
+        <v/>
+      </c>
+      <c r="J26">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J25)/Hoja1!J25</f>
+        <v/>
+      </c>
+      <c r="K26">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K25)/Hoja1!K25</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L25)/Hoja1!L25</f>
+        <v/>
+      </c>
+      <c r="M26">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M25)/Hoja1!M25</f>
+        <v/>
+      </c>
+      <c r="N26">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N25)/Hoja1!N25</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2993,31 @@
         <v/>
       </c>
       <c r="H27">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H26)/Hoja1!H26</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H26)/Hoja1!H26</f>
+        <v/>
+      </c>
+      <c r="I27">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I26)/Hoja1!I26</f>
+        <v/>
+      </c>
+      <c r="J27">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J26)/Hoja1!J26</f>
+        <v/>
+      </c>
+      <c r="K27">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K26)/Hoja1!K26</f>
+        <v/>
+      </c>
+      <c r="L27">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L26)/Hoja1!L26</f>
+        <v/>
+      </c>
+      <c r="M27">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M26)/Hoja1!M26</f>
+        <v/>
+      </c>
+      <c r="N27">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N26)/Hoja1!N26</f>
         <v/>
       </c>
     </row>
@@ -2200,7 +3050,31 @@
         <v/>
       </c>
       <c r="H28">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H27)/Hoja1!H27</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H27)/Hoja1!H27</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I27)/Hoja1!I27</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J27)/Hoja1!J27</f>
+        <v/>
+      </c>
+      <c r="K28">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K27)/Hoja1!K27</f>
+        <v/>
+      </c>
+      <c r="L28">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L27)/Hoja1!L27</f>
+        <v/>
+      </c>
+      <c r="M28">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M27)/Hoja1!M27</f>
+        <v/>
+      </c>
+      <c r="N28">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N27)/Hoja1!N27</f>
         <v/>
       </c>
     </row>
@@ -2233,7 +3107,31 @@
         <v/>
       </c>
       <c r="H29">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H28)/Hoja1!H28</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H28)/Hoja1!H28</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I28)/Hoja1!I28</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J28)/Hoja1!J28</f>
+        <v/>
+      </c>
+      <c r="K29">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K28)/Hoja1!K28</f>
+        <v/>
+      </c>
+      <c r="L29">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L28)/Hoja1!L28</f>
+        <v/>
+      </c>
+      <c r="M29">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M28)/Hoja1!M28</f>
+        <v/>
+      </c>
+      <c r="N29">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N28)/Hoja1!N28</f>
         <v/>
       </c>
     </row>
@@ -2266,7 +3164,31 @@
         <v/>
       </c>
       <c r="H30">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H29)/Hoja1!H29</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H29)/Hoja1!H29</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I29)/Hoja1!I29</f>
+        <v/>
+      </c>
+      <c r="J30">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J29)/Hoja1!J29</f>
+        <v/>
+      </c>
+      <c r="K30">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K29)/Hoja1!K29</f>
+        <v/>
+      </c>
+      <c r="L30">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L29)/Hoja1!L29</f>
+        <v/>
+      </c>
+      <c r="M30">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M29)/Hoja1!M29</f>
+        <v/>
+      </c>
+      <c r="N30">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N29)/Hoja1!N29</f>
         <v/>
       </c>
     </row>
@@ -2299,7 +3221,31 @@
         <v/>
       </c>
       <c r="H31">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H30)/Hoja1!H30</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H30)/Hoja1!H30</f>
+        <v/>
+      </c>
+      <c r="I31">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I30)/Hoja1!I30</f>
+        <v/>
+      </c>
+      <c r="J31">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J30)/Hoja1!J30</f>
+        <v/>
+      </c>
+      <c r="K31">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K30)/Hoja1!K30</f>
+        <v/>
+      </c>
+      <c r="L31">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L30)/Hoja1!L30</f>
+        <v/>
+      </c>
+      <c r="M31">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M30)/Hoja1!M30</f>
+        <v/>
+      </c>
+      <c r="N31">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N30)/Hoja1!N30</f>
         <v/>
       </c>
     </row>
@@ -2332,7 +3278,31 @@
         <v/>
       </c>
       <c r="H32">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H31)/Hoja1!H31</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H31)/Hoja1!H31</f>
+        <v/>
+      </c>
+      <c r="I32">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I31)/Hoja1!I31</f>
+        <v/>
+      </c>
+      <c r="J32">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J31)/Hoja1!J31</f>
+        <v/>
+      </c>
+      <c r="K32">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K31)/Hoja1!K31</f>
+        <v/>
+      </c>
+      <c r="L32">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L31)/Hoja1!L31</f>
+        <v/>
+      </c>
+      <c r="M32">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M31)/Hoja1!M31</f>
+        <v/>
+      </c>
+      <c r="N32">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N31)/Hoja1!N31</f>
         <v/>
       </c>
     </row>
@@ -2365,7 +3335,31 @@
         <v/>
       </c>
       <c r="H33">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H32)/Hoja1!H32</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H32)/Hoja1!H32</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I32)/Hoja1!I32</f>
+        <v/>
+      </c>
+      <c r="J33">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J32)/Hoja1!J32</f>
+        <v/>
+      </c>
+      <c r="K33">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K32)/Hoja1!K32</f>
+        <v/>
+      </c>
+      <c r="L33">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L32)/Hoja1!L32</f>
+        <v/>
+      </c>
+      <c r="M33">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M32)/Hoja1!M32</f>
+        <v/>
+      </c>
+      <c r="N33">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N32)/Hoja1!N32</f>
         <v/>
       </c>
     </row>
@@ -2398,7 +3392,31 @@
         <v/>
       </c>
       <c r="H34">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H33)/Hoja1!H33</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H33)/Hoja1!H33</f>
+        <v/>
+      </c>
+      <c r="I34">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I33)/Hoja1!I33</f>
+        <v/>
+      </c>
+      <c r="J34">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J33)/Hoja1!J33</f>
+        <v/>
+      </c>
+      <c r="K34">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K33)/Hoja1!K33</f>
+        <v/>
+      </c>
+      <c r="L34">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L33)/Hoja1!L33</f>
+        <v/>
+      </c>
+      <c r="M34">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M33)/Hoja1!M33</f>
+        <v/>
+      </c>
+      <c r="N34">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N33)/Hoja1!N33</f>
         <v/>
       </c>
     </row>
@@ -2431,7 +3449,31 @@
         <v/>
       </c>
       <c r="H35">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H34)/Hoja1!H34</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H34)/Hoja1!H34</f>
+        <v/>
+      </c>
+      <c r="I35">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I34)/Hoja1!I34</f>
+        <v/>
+      </c>
+      <c r="J35">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J34)/Hoja1!J34</f>
+        <v/>
+      </c>
+      <c r="K35">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K34)/Hoja1!K34</f>
+        <v/>
+      </c>
+      <c r="L35">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L34)/Hoja1!L34</f>
+        <v/>
+      </c>
+      <c r="M35">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M34)/Hoja1!M34</f>
+        <v/>
+      </c>
+      <c r="N35">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N34)/Hoja1!N34</f>
         <v/>
       </c>
     </row>
@@ -2464,7 +3506,31 @@
         <v/>
       </c>
       <c r="H36">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H35)/Hoja1!H35</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H35)/Hoja1!H35</f>
+        <v/>
+      </c>
+      <c r="I36">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I35)/Hoja1!I35</f>
+        <v/>
+      </c>
+      <c r="J36">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J35)/Hoja1!J35</f>
+        <v/>
+      </c>
+      <c r="K36">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K35)/Hoja1!K35</f>
+        <v/>
+      </c>
+      <c r="L36">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L35)/Hoja1!L35</f>
+        <v/>
+      </c>
+      <c r="M36">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M35)/Hoja1!M35</f>
+        <v/>
+      </c>
+      <c r="N36">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N35)/Hoja1!N35</f>
         <v/>
       </c>
     </row>
@@ -2497,7 +3563,31 @@
         <v/>
       </c>
       <c r="H37">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H36)/Hoja1!H36</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H36)/Hoja1!H36</f>
+        <v/>
+      </c>
+      <c r="I37">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I36)/Hoja1!I36</f>
+        <v/>
+      </c>
+      <c r="J37">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J36)/Hoja1!J36</f>
+        <v/>
+      </c>
+      <c r="K37">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K36)/Hoja1!K36</f>
+        <v/>
+      </c>
+      <c r="L37">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L36)/Hoja1!L36</f>
+        <v/>
+      </c>
+      <c r="M37">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M36)/Hoja1!M36</f>
+        <v/>
+      </c>
+      <c r="N37">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N36)/Hoja1!N36</f>
         <v/>
       </c>
     </row>
@@ -2530,7 +3620,31 @@
         <v/>
       </c>
       <c r="H38">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H37)/Hoja1!H37</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H37)/Hoja1!H37</f>
+        <v/>
+      </c>
+      <c r="I38">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I37)/Hoja1!I37</f>
+        <v/>
+      </c>
+      <c r="J38">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J37)/Hoja1!J37</f>
+        <v/>
+      </c>
+      <c r="K38">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K37)/Hoja1!K37</f>
+        <v/>
+      </c>
+      <c r="L38">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L37)/Hoja1!L37</f>
+        <v/>
+      </c>
+      <c r="M38">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M37)/Hoja1!M37</f>
+        <v/>
+      </c>
+      <c r="N38">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N37)/Hoja1!N37</f>
         <v/>
       </c>
     </row>
@@ -2563,7 +3677,31 @@
         <v/>
       </c>
       <c r="H39">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H38)/Hoja1!H38</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H38)/Hoja1!H38</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I38)/Hoja1!I38</f>
+        <v/>
+      </c>
+      <c r="J39">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J38)/Hoja1!J38</f>
+        <v/>
+      </c>
+      <c r="K39">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K38)/Hoja1!K38</f>
+        <v/>
+      </c>
+      <c r="L39">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L38)/Hoja1!L38</f>
+        <v/>
+      </c>
+      <c r="M39">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M38)/Hoja1!M38</f>
+        <v/>
+      </c>
+      <c r="N39">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N38)/Hoja1!N38</f>
         <v/>
       </c>
     </row>
@@ -2596,7 +3734,31 @@
         <v/>
       </c>
       <c r="H40">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H39)/Hoja1!H39</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H39)/Hoja1!H39</f>
+        <v/>
+      </c>
+      <c r="I40">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I39)/Hoja1!I39</f>
+        <v/>
+      </c>
+      <c r="J40">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J39)/Hoja1!J39</f>
+        <v/>
+      </c>
+      <c r="K40">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K39)/Hoja1!K39</f>
+        <v/>
+      </c>
+      <c r="L40">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L39)/Hoja1!L39</f>
+        <v/>
+      </c>
+      <c r="M40">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M39)/Hoja1!M39</f>
+        <v/>
+      </c>
+      <c r="N40">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N39)/Hoja1!N39</f>
         <v/>
       </c>
     </row>
@@ -2629,7 +3791,31 @@
         <v/>
       </c>
       <c r="H41">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H40)/Hoja1!H40</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H40)/Hoja1!H40</f>
+        <v/>
+      </c>
+      <c r="I41">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I40)/Hoja1!I40</f>
+        <v/>
+      </c>
+      <c r="J41">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J40)/Hoja1!J40</f>
+        <v/>
+      </c>
+      <c r="K41">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K40)/Hoja1!K40</f>
+        <v/>
+      </c>
+      <c r="L41">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L40)/Hoja1!L40</f>
+        <v/>
+      </c>
+      <c r="M41">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M40)/Hoja1!M40</f>
+        <v/>
+      </c>
+      <c r="N41">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N40)/Hoja1!N40</f>
         <v/>
       </c>
     </row>
@@ -2662,7 +3848,31 @@
         <v/>
       </c>
       <c r="H42">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H41)/Hoja1!H41</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H41)/Hoja1!H41</f>
+        <v/>
+      </c>
+      <c r="I42">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I41)/Hoja1!I41</f>
+        <v/>
+      </c>
+      <c r="J42">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J41)/Hoja1!J41</f>
+        <v/>
+      </c>
+      <c r="K42">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K41)/Hoja1!K41</f>
+        <v/>
+      </c>
+      <c r="L42">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L41)/Hoja1!L41</f>
+        <v/>
+      </c>
+      <c r="M42">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M41)/Hoja1!M41</f>
+        <v/>
+      </c>
+      <c r="N42">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N41)/Hoja1!N41</f>
         <v/>
       </c>
     </row>
@@ -2695,7 +3905,31 @@
         <v/>
       </c>
       <c r="H43">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H42)/Hoja1!H42</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H42)/Hoja1!H42</f>
+        <v/>
+      </c>
+      <c r="I43">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I42)/Hoja1!I42</f>
+        <v/>
+      </c>
+      <c r="J43">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J42)/Hoja1!J42</f>
+        <v/>
+      </c>
+      <c r="K43">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K42)/Hoja1!K42</f>
+        <v/>
+      </c>
+      <c r="L43">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L42)/Hoja1!L42</f>
+        <v/>
+      </c>
+      <c r="M43">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M42)/Hoja1!M42</f>
+        <v/>
+      </c>
+      <c r="N43">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N42)/Hoja1!N42</f>
         <v/>
       </c>
     </row>
@@ -2728,7 +3962,31 @@
         <v/>
       </c>
       <c r="H44">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H43)/Hoja1!H43</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H43)/Hoja1!H43</f>
+        <v/>
+      </c>
+      <c r="I44">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I43)/Hoja1!I43</f>
+        <v/>
+      </c>
+      <c r="J44">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J43)/Hoja1!J43</f>
+        <v/>
+      </c>
+      <c r="K44">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K43)/Hoja1!K43</f>
+        <v/>
+      </c>
+      <c r="L44">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L43)/Hoja1!L43</f>
+        <v/>
+      </c>
+      <c r="M44">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M43)/Hoja1!M43</f>
+        <v/>
+      </c>
+      <c r="N44">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N43)/Hoja1!N43</f>
         <v/>
       </c>
     </row>
@@ -2761,7 +4019,31 @@
         <v/>
       </c>
       <c r="H45">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H44)/Hoja1!H44</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H44)/Hoja1!H44</f>
+        <v/>
+      </c>
+      <c r="I45">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I44)/Hoja1!I44</f>
+        <v/>
+      </c>
+      <c r="J45">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J44)/Hoja1!J44</f>
+        <v/>
+      </c>
+      <c r="K45">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K44)/Hoja1!K44</f>
+        <v/>
+      </c>
+      <c r="L45">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L44)/Hoja1!L44</f>
+        <v/>
+      </c>
+      <c r="M45">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M44)/Hoja1!M44</f>
+        <v/>
+      </c>
+      <c r="N45">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N44)/Hoja1!N44</f>
         <v/>
       </c>
     </row>
@@ -2794,7 +4076,31 @@
         <v/>
       </c>
       <c r="H46">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H45)/Hoja1!H45</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H45)/Hoja1!H45</f>
+        <v/>
+      </c>
+      <c r="I46">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I45)/Hoja1!I45</f>
+        <v/>
+      </c>
+      <c r="J46">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J45)/Hoja1!J45</f>
+        <v/>
+      </c>
+      <c r="K46">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K45)/Hoja1!K45</f>
+        <v/>
+      </c>
+      <c r="L46">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L45)/Hoja1!L45</f>
+        <v/>
+      </c>
+      <c r="M46">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M45)/Hoja1!M45</f>
+        <v/>
+      </c>
+      <c r="N46">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N45)/Hoja1!N45</f>
         <v/>
       </c>
     </row>
@@ -2827,7 +4133,31 @@
         <v/>
       </c>
       <c r="H47">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H46)/Hoja1!H46</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H46)/Hoja1!H46</f>
+        <v/>
+      </c>
+      <c r="I47">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I46)/Hoja1!I46</f>
+        <v/>
+      </c>
+      <c r="J47">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J46)/Hoja1!J46</f>
+        <v/>
+      </c>
+      <c r="K47">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K46)/Hoja1!K46</f>
+        <v/>
+      </c>
+      <c r="L47">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L46)/Hoja1!L46</f>
+        <v/>
+      </c>
+      <c r="M47">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M46)/Hoja1!M46</f>
+        <v/>
+      </c>
+      <c r="N47">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N46)/Hoja1!N46</f>
         <v/>
       </c>
     </row>
@@ -2860,7 +4190,31 @@
         <v/>
       </c>
       <c r="H48">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H47)/Hoja1!H47</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H47)/Hoja1!H47</f>
+        <v/>
+      </c>
+      <c r="I48">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I47)/Hoja1!I47</f>
+        <v/>
+      </c>
+      <c r="J48">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J47)/Hoja1!J47</f>
+        <v/>
+      </c>
+      <c r="K48">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K47)/Hoja1!K47</f>
+        <v/>
+      </c>
+      <c r="L48">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L47)/Hoja1!L47</f>
+        <v/>
+      </c>
+      <c r="M48">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M47)/Hoja1!M47</f>
+        <v/>
+      </c>
+      <c r="N48">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N47)/Hoja1!N47</f>
         <v/>
       </c>
     </row>
@@ -2893,7 +4247,31 @@
         <v/>
       </c>
       <c r="H49">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H48)/Hoja1!H48</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H48)/Hoja1!H48</f>
+        <v/>
+      </c>
+      <c r="I49">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I48)/Hoja1!I48</f>
+        <v/>
+      </c>
+      <c r="J49">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J48)/Hoja1!J48</f>
+        <v/>
+      </c>
+      <c r="K49">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K48)/Hoja1!K48</f>
+        <v/>
+      </c>
+      <c r="L49">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L48)/Hoja1!L48</f>
+        <v/>
+      </c>
+      <c r="M49">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M48)/Hoja1!M48</f>
+        <v/>
+      </c>
+      <c r="N49">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N48)/Hoja1!N48</f>
         <v/>
       </c>
     </row>
@@ -2926,7 +4304,31 @@
         <v/>
       </c>
       <c r="H50">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H49)/Hoja1!H49</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H49)/Hoja1!H49</f>
+        <v/>
+      </c>
+      <c r="I50">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I49)/Hoja1!I49</f>
+        <v/>
+      </c>
+      <c r="J50">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J49)/Hoja1!J49</f>
+        <v/>
+      </c>
+      <c r="K50">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K49)/Hoja1!K49</f>
+        <v/>
+      </c>
+      <c r="L50">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L49)/Hoja1!L49</f>
+        <v/>
+      </c>
+      <c r="M50">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M49)/Hoja1!M49</f>
+        <v/>
+      </c>
+      <c r="N50">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N49)/Hoja1!N49</f>
         <v/>
       </c>
     </row>
@@ -2959,7 +4361,31 @@
         <v/>
       </c>
       <c r="H51">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H50)/Hoja1!H50</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H50)/Hoja1!H50</f>
+        <v/>
+      </c>
+      <c r="I51">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I50)/Hoja1!I50</f>
+        <v/>
+      </c>
+      <c r="J51">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J50)/Hoja1!J50</f>
+        <v/>
+      </c>
+      <c r="K51">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K50)/Hoja1!K50</f>
+        <v/>
+      </c>
+      <c r="L51">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L50)/Hoja1!L50</f>
+        <v/>
+      </c>
+      <c r="M51">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M50)/Hoja1!M50</f>
+        <v/>
+      </c>
+      <c r="N51">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N50)/Hoja1!N50</f>
         <v/>
       </c>
     </row>
@@ -2992,7 +4418,31 @@
         <v/>
       </c>
       <c r="H52">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H51)/Hoja1!H51</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H51)/Hoja1!H51</f>
+        <v/>
+      </c>
+      <c r="I52">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I51)/Hoja1!I51</f>
+        <v/>
+      </c>
+      <c r="J52">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J51)/Hoja1!J51</f>
+        <v/>
+      </c>
+      <c r="K52">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K51)/Hoja1!K51</f>
+        <v/>
+      </c>
+      <c r="L52">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L51)/Hoja1!L51</f>
+        <v/>
+      </c>
+      <c r="M52">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M51)/Hoja1!M51</f>
+        <v/>
+      </c>
+      <c r="N52">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N51)/Hoja1!N51</f>
         <v/>
       </c>
     </row>
@@ -3025,7 +4475,31 @@
         <v/>
       </c>
       <c r="H53">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H52)/Hoja1!H52</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H52)/Hoja1!H52</f>
+        <v/>
+      </c>
+      <c r="I53">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I52)/Hoja1!I52</f>
+        <v/>
+      </c>
+      <c r="J53">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J52)/Hoja1!J52</f>
+        <v/>
+      </c>
+      <c r="K53">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K52)/Hoja1!K52</f>
+        <v/>
+      </c>
+      <c r="L53">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L52)/Hoja1!L52</f>
+        <v/>
+      </c>
+      <c r="M53">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M52)/Hoja1!M52</f>
+        <v/>
+      </c>
+      <c r="N53">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N52)/Hoja1!N52</f>
         <v/>
       </c>
     </row>
@@ -3058,7 +4532,31 @@
         <v/>
       </c>
       <c r="H54">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H53)/Hoja1!H53</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H53)/Hoja1!H53</f>
+        <v/>
+      </c>
+      <c r="I54">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I53)/Hoja1!I53</f>
+        <v/>
+      </c>
+      <c r="J54">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J53)/Hoja1!J53</f>
+        <v/>
+      </c>
+      <c r="K54">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K53)/Hoja1!K53</f>
+        <v/>
+      </c>
+      <c r="L54">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L53)/Hoja1!L53</f>
+        <v/>
+      </c>
+      <c r="M54">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M53)/Hoja1!M53</f>
+        <v/>
+      </c>
+      <c r="N54">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N53)/Hoja1!N53</f>
         <v/>
       </c>
     </row>
@@ -3091,7 +4589,31 @@
         <v/>
       </c>
       <c r="H55">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H54)/Hoja1!H54</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H54)/Hoja1!H54</f>
+        <v/>
+      </c>
+      <c r="I55">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I54)/Hoja1!I54</f>
+        <v/>
+      </c>
+      <c r="J55">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J54)/Hoja1!J54</f>
+        <v/>
+      </c>
+      <c r="K55">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K54)/Hoja1!K54</f>
+        <v/>
+      </c>
+      <c r="L55">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L54)/Hoja1!L54</f>
+        <v/>
+      </c>
+      <c r="M55">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M54)/Hoja1!M54</f>
+        <v/>
+      </c>
+      <c r="N55">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N54)/Hoja1!N54</f>
         <v/>
       </c>
     </row>
@@ -3124,7 +4646,31 @@
         <v/>
       </c>
       <c r="H56">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H55)/Hoja1!H55</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H55)/Hoja1!H55</f>
+        <v/>
+      </c>
+      <c r="I56">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I55)/Hoja1!I55</f>
+        <v/>
+      </c>
+      <c r="J56">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J55)/Hoja1!J55</f>
+        <v/>
+      </c>
+      <c r="K56">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K55)/Hoja1!K55</f>
+        <v/>
+      </c>
+      <c r="L56">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L55)/Hoja1!L55</f>
+        <v/>
+      </c>
+      <c r="M56">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M55)/Hoja1!M55</f>
+        <v/>
+      </c>
+      <c r="N56">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N55)/Hoja1!N55</f>
         <v/>
       </c>
     </row>
@@ -3157,7 +4703,31 @@
         <v/>
       </c>
       <c r="H57">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H56)/Hoja1!H56</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H56)/Hoja1!H56</f>
+        <v/>
+      </c>
+      <c r="I57">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I56)/Hoja1!I56</f>
+        <v/>
+      </c>
+      <c r="J57">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J56)/Hoja1!J56</f>
+        <v/>
+      </c>
+      <c r="K57">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K56)/Hoja1!K56</f>
+        <v/>
+      </c>
+      <c r="L57">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L56)/Hoja1!L56</f>
+        <v/>
+      </c>
+      <c r="M57">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M56)/Hoja1!M56</f>
+        <v/>
+      </c>
+      <c r="N57">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N56)/Hoja1!N56</f>
         <v/>
       </c>
     </row>
@@ -3190,7 +4760,31 @@
         <v/>
       </c>
       <c r="H58">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H57)/Hoja1!H57</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H57)/Hoja1!H57</f>
+        <v/>
+      </c>
+      <c r="I58">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I57)/Hoja1!I57</f>
+        <v/>
+      </c>
+      <c r="J58">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J57)/Hoja1!J57</f>
+        <v/>
+      </c>
+      <c r="K58">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K57)/Hoja1!K57</f>
+        <v/>
+      </c>
+      <c r="L58">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L57)/Hoja1!L57</f>
+        <v/>
+      </c>
+      <c r="M58">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M57)/Hoja1!M57</f>
+        <v/>
+      </c>
+      <c r="N58">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N57)/Hoja1!N57</f>
         <v/>
       </c>
     </row>
@@ -3223,7 +4817,31 @@
         <v/>
       </c>
       <c r="H59">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H58)/Hoja1!H58</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H58)/Hoja1!H58</f>
+        <v/>
+      </c>
+      <c r="I59">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I58)/Hoja1!I58</f>
+        <v/>
+      </c>
+      <c r="J59">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J58)/Hoja1!J58</f>
+        <v/>
+      </c>
+      <c r="K59">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K58)/Hoja1!K58</f>
+        <v/>
+      </c>
+      <c r="L59">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L58)/Hoja1!L58</f>
+        <v/>
+      </c>
+      <c r="M59">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M58)/Hoja1!M58</f>
+        <v/>
+      </c>
+      <c r="N59">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N58)/Hoja1!N58</f>
         <v/>
       </c>
     </row>
@@ -3256,7 +4874,31 @@
         <v/>
       </c>
       <c r="H60">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H59)/Hoja1!H59</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H59)/Hoja1!H59</f>
+        <v/>
+      </c>
+      <c r="I60">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I59)/Hoja1!I59</f>
+        <v/>
+      </c>
+      <c r="J60">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J59)/Hoja1!J59</f>
+        <v/>
+      </c>
+      <c r="K60">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K59)/Hoja1!K59</f>
+        <v/>
+      </c>
+      <c r="L60">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L59)/Hoja1!L59</f>
+        <v/>
+      </c>
+      <c r="M60">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M59)/Hoja1!M59</f>
+        <v/>
+      </c>
+      <c r="N60">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N59)/Hoja1!N59</f>
         <v/>
       </c>
     </row>
@@ -3289,7 +4931,31 @@
         <v/>
       </c>
       <c r="H61">
-        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!H60)/Hoja1!H60</f>
+        <f>(Tabla1[[#This Row],[Sau Tablets]]-Hoja1!H60)/Hoja1!H60</f>
+        <v/>
+      </c>
+      <c r="I61">
+        <f>(Tabla1[[#This Row],[Sau Computer]]-Hoja1!I60)/Hoja1!I60</f>
+        <v/>
+      </c>
+      <c r="J61">
+        <f>(Tabla1[[#This Row],[Usuarios REE]]-Hoja1!J60)/Hoja1!J60</f>
+        <v/>
+      </c>
+      <c r="K61">
+        <f>(Tabla1[[#This Row],[Sau smartphones]]-Hoja1!K60)/Hoja1!K60</f>
+        <v/>
+      </c>
+      <c r="L61">
+        <f>(Tabla1[[#This Row],[Sau lineas moviles]]-Hoja1!L60)/Hoja1!L60</f>
+        <v/>
+      </c>
+      <c r="M61">
+        <f>(Tabla1[[#This Row],[Sau Telefonia fija]]-Hoja1!M60)/Hoja1!M60</f>
+        <v/>
+      </c>
+      <c r="N61">
+        <f>(Tabla1[[#This Row],[Listado de aplicaciones]]-Hoja1!N60)/Hoja1!N60</f>
         <v/>
       </c>
     </row>
